--- a/assets/media/project-100.xlsx
+++ b/assets/media/project-100.xlsx
@@ -247,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -356,6 +356,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,7 +750,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,29 +1594,29 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="28">
         <v>1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="28">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="29">
         <v>43438</v>
       </c>
     </row>
